--- a/results/mp/logistic/corona/confidence/84/masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,60 +43,63 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -112,175 +115,184 @@
     <t>prices</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8082191780821918</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -757,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7837837837837838</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,16 +890,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,16 +990,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -1025,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5767195767195767</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L10">
         <v>48</v>
       </c>
-      <c r="K10">
-        <v>0.8276762402088773</v>
-      </c>
-      <c r="L10">
-        <v>317</v>
-      </c>
       <c r="M10">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5686274509803921</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.55</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5423728813559322</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5368217054263565</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C14">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D14">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4832214765100671</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4055555555555556</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C16">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.76875</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3818181818181818</v>
+        <v>0.44</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3818181818181818</v>
+        <v>0.425</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3733333333333334</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3392857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1607,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.7441860465116279</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2857142857142857</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.7435897435897436</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2777777777777778</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.7301587301587301</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1662198391420912</v>
+        <v>0.25</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1807,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>0.1796246648793566</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,37 +1869,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02072538860103627</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1134</v>
+        <v>268</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.6857142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,37 +1919,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01580135440180587</v>
+        <v>0.02588438308886971</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F27">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3052</v>
+        <v>1129</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.6735294117647059</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L27">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M27">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,37 +1969,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01517067003792667</v>
+        <v>0.02285230639018197</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E28">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="F28">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2337</v>
+        <v>2309</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.6307692307692307</v>
+        <v>0.65</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,37 +2019,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01358950328022493</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.62</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,49 +2069,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01220575414123801</v>
+        <v>0.01388440426218922</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="F30">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2266</v>
+        <v>3054</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.5884353741496599</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L30">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,49 +2119,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00862671951503847</v>
+        <v>0.009594417793283908</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F31">
-        <v>0.49</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4252</v>
+        <v>2271</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.5857740585774058</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L31">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="M31">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2157,37 +2169,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007810974419058777</v>
+        <v>0.009376831412385232</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E32">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="F32">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>5081</v>
+        <v>5071</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.5851063829787234</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2199,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2207,37 +2219,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007651109410864576</v>
+        <v>0.008287851222963412</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="F33">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2594</v>
+        <v>4906</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2249,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2257,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.007482305358948432</v>
+        <v>0.007704879757179547</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E34">
         <v>0.58</v>
@@ -2275,19 +2287,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4908</v>
+        <v>4250</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.4943820224719101</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,21 +2311,45 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.005989911727616645</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="E35">
+        <v>0.6</v>
+      </c>
+      <c r="F35">
+        <v>0.4</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3153</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.4523809523809524</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2325,47 +2361,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.4313725490196079</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2377,47 +2413,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.3835616438356164</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>28</v>
-      </c>
-      <c r="M38">
-        <v>28</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.3442622950819672</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2429,15 +2465,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L40">
         <v>26</v>
@@ -2455,15 +2491,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.3333333333333333</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -2481,21 +2517,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>0.3220338983050847</v>
+        <v>0.3125</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2507,21 +2543,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K43">
-        <v>0.296875</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2533,293 +2569,371 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44">
-        <v>0.04761904761904762</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>520</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K45">
-        <v>0.04347826086956522</v>
+        <v>0.05118829981718465</v>
       </c>
       <c r="L45">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K46">
-        <v>0.02223897474557105</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M46">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="N46">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="O46">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2594</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K47">
-        <v>0.0200920887400586</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="O47">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2341</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K48">
-        <v>0.01729559748427673</v>
+        <v>0.01881113619262604</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="N48">
-        <v>0.5600000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="O48">
-        <v>0.4399999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1250</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K49">
-        <v>0.01261829652996845</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="L49">
         <v>20</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N49">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="O49">
-        <v>0.3100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1565</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>0.01224874371859296</v>
+        <v>0.01514195583596215</v>
       </c>
       <c r="L50">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N50">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="O50">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3145</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>0.0102843315184513</v>
+        <v>0.01277297074577668</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="N51">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="O51">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4908</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K52">
-        <v>0.009872480460715755</v>
+        <v>0.01213389121338912</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="O52">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2407</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K53">
-        <v>0.00908879049172687</v>
+        <v>0.01047729918509895</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M53">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N53">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="O53">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4252</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54">
+        <v>0.01024208566108007</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+      <c r="N54">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55">
+        <v>0.009889001009081735</v>
+      </c>
+      <c r="L55">
+        <v>49</v>
+      </c>
+      <c r="M55">
+        <v>90</v>
+      </c>
+      <c r="N55">
+        <v>0.54</v>
+      </c>
+      <c r="O55">
+        <v>0.46</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <v>0.009113764927718416</v>
+      </c>
+      <c r="L56">
+        <v>29</v>
+      </c>
+      <c r="M56">
+        <v>48</v>
+      </c>
+      <c r="N56">
+        <v>0.6</v>
+      </c>
+      <c r="O56">
+        <v>0.4</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K54">
-        <v>0.008585365853658537</v>
-      </c>
-      <c r="L54">
-        <v>44</v>
-      </c>
-      <c r="M54">
-        <v>84</v>
-      </c>
-      <c r="N54">
-        <v>0.52</v>
-      </c>
-      <c r="O54">
-        <v>0.48</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>5081</v>
+      <c r="K57">
+        <v>0.008989642368575338</v>
+      </c>
+      <c r="L57">
+        <v>46</v>
+      </c>
+      <c r="M57">
+        <v>94</v>
+      </c>
+      <c r="N57">
+        <v>0.49</v>
+      </c>
+      <c r="O57">
+        <v>0.51</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5071</v>
       </c>
     </row>
   </sheetData>
